--- a/RDT 2 0 - States.xlsx
+++ b/RDT 2 0 - States.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_HW\1_FormalMethods\FormalMethods-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="32">
   <si>
     <t xml:space="preserve">State 0 </t>
   </si>
@@ -114,6 +109,9 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>Nal</t>
   </si>
 </sst>
 </file>
@@ -288,7 +286,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,7 +321,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E4:Y37"/>
+  <dimension ref="E4:AJ37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="AH22" sqref="AH22:AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +542,7 @@
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:33" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>0</v>
       </c>
@@ -564,7 +562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>6</v>
       </c>
@@ -584,7 +582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>7</v>
       </c>
@@ -600,8 +598,26 @@
       <c r="K6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="AB6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>8</v>
       </c>
@@ -628,8 +644,26 @@
       <c r="V7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="AA7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>9</v>
       </c>
@@ -656,8 +690,23 @@
         <v>14</v>
       </c>
       <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="AA8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="5:33" x14ac:dyDescent="0.25">
       <c r="O9" t="s">
         <v>7</v>
       </c>
@@ -672,8 +721,17 @@
       <c r="V9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="AA9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="5:33" x14ac:dyDescent="0.25">
       <c r="O10" t="s">
         <v>8</v>
       </c>
@@ -685,12 +743,21 @@
         <v>15</v>
       </c>
       <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="AA10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="5:33" x14ac:dyDescent="0.25">
       <c r="R11" s="7"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:33" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>0</v>
       </c>
@@ -727,7 +794,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>6</v>
       </c>
@@ -750,12 +817,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="AB14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>8</v>
       </c>
@@ -789,8 +874,29 @@
       <c r="V15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="AA15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>9</v>
       </c>
@@ -821,8 +927,11 @@
       <c r="U16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="AA16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="15:33" x14ac:dyDescent="0.25">
       <c r="O17" t="s">
         <v>7</v>
       </c>
@@ -838,8 +947,20 @@
       <c r="V17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="AA17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="15:33" x14ac:dyDescent="0.25">
       <c r="O18" t="s">
         <v>8</v>
       </c>
@@ -855,8 +976,17 @@
       <c r="U18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="AA18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="15:33" x14ac:dyDescent="0.25">
       <c r="O19" t="s">
         <v>9</v>
       </c>
@@ -867,7 +997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="15:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="15:33" x14ac:dyDescent="0.25">
       <c r="O20" t="s">
         <v>30</v>
       </c>
@@ -893,7 +1023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="15:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="15:33" x14ac:dyDescent="0.25">
       <c r="P22" t="s">
         <v>0</v>
       </c>
@@ -924,8 +1054,29 @@
       <c r="Y22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="AA22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="15:33" x14ac:dyDescent="0.25">
       <c r="O23" t="s">
         <v>6</v>
       </c>
@@ -956,8 +1107,26 @@
       <c r="X23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="AA23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="15:33" x14ac:dyDescent="0.25">
       <c r="O24" t="s">
         <v>7</v>
       </c>
@@ -973,8 +1142,20 @@
       <c r="Y24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="AD24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="15:33" x14ac:dyDescent="0.25">
       <c r="O25" t="s">
         <v>8</v>
       </c>
@@ -996,8 +1177,20 @@
       <c r="X25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="AB25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="15:33" x14ac:dyDescent="0.25">
       <c r="O26" t="s">
         <v>9</v>
       </c>
@@ -1010,8 +1203,14 @@
       <c r="X26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="AC26" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="15:33" x14ac:dyDescent="0.25">
       <c r="O27" t="s">
         <v>30</v>
       </c>
@@ -1045,8 +1244,29 @@
       <c r="Y27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="AA27" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="15:33" x14ac:dyDescent="0.25">
       <c r="P28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1056,8 +1276,17 @@
       <c r="R28" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="AA28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="15:33" x14ac:dyDescent="0.25">
       <c r="Q29" s="4" t="s">
         <v>27</v>
       </c>
@@ -1067,8 +1296,17 @@
       <c r="S29" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="AB29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="15:33" x14ac:dyDescent="0.25">
       <c r="R30" s="4" t="s">
         <v>27</v>
       </c>
@@ -1078,8 +1316,17 @@
       <c r="T30" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="AC30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="15:33" x14ac:dyDescent="0.25">
       <c r="S31" s="4" t="s">
         <v>27</v>
       </c>
@@ -1089,8 +1336,17 @@
       <c r="U31" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="AD31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF31" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="15:33" x14ac:dyDescent="0.25">
       <c r="T32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1100,8 +1356,17 @@
       <c r="V32" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="AE32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="21:36" x14ac:dyDescent="0.25">
       <c r="U33" s="1" t="s">
         <v>27</v>
       </c>
@@ -1111,8 +1376,17 @@
       <c r="W33" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="AF33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH33" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="21:36" x14ac:dyDescent="0.25">
       <c r="V34" t="s">
         <v>27</v>
       </c>
@@ -1122,8 +1396,17 @@
       <c r="X34" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="AG34" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="21:36" x14ac:dyDescent="0.25">
       <c r="W35" t="s">
         <v>27</v>
       </c>
@@ -1133,17 +1416,35 @@
       <c r="Y35" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="AH35" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="21:36" x14ac:dyDescent="0.25">
       <c r="X36" t="s">
         <v>27</v>
       </c>
       <c r="Y36" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="AI36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="21:36" x14ac:dyDescent="0.25">
       <c r="Y37" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ37" t="s">
         <v>27</v>
       </c>
     </row>

--- a/RDT 2 0 - States.xlsx
+++ b/RDT 2 0 - States.xlsx
@@ -7,16 +7,15 @@
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Milestone 3" sheetId="2" r:id="rId1"/>
+    <sheet name="Milestone 2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="39">
   <si>
     <t xml:space="preserve">State 0 </t>
   </si>
@@ -112,6 +111,27 @@
   </si>
   <si>
     <t>Nal</t>
+  </si>
+  <si>
+    <t>seq_num</t>
+  </si>
+  <si>
+    <t>Nak + Bad Seq.</t>
+  </si>
+  <si>
+    <t>Nak + Good Seq.</t>
+  </si>
+  <si>
+    <t>Ack + Good Seq.</t>
+  </si>
+  <si>
+    <t>Ack + Bad Seq.</t>
+  </si>
+  <si>
+    <t>COUNTEREXAMPLE BELOW</t>
+  </si>
+  <si>
+    <t>GOOD TRACE BELOW</t>
   </si>
 </sst>
 </file>
@@ -134,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +164,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -226,6 +252,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,10 +562,755 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:T34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1</v>
+      </c>
+      <c r="P9" s="8">
+        <v>1</v>
+      </c>
+      <c r="R9" s="8">
+        <v>1</v>
+      </c>
+      <c r="S9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="F13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="G14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23" t="s">
+        <v>10</v>
+      </c>
+      <c r="S23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" t="s">
+        <v>8</v>
+      </c>
+      <c r="O25" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" t="s">
+        <v>11</v>
+      </c>
+      <c r="R25" t="s">
+        <v>11</v>
+      </c>
+      <c r="S25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" t="s">
+        <v>9</v>
+      </c>
+      <c r="P26" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8">
+        <v>1</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8">
+        <v>1</v>
+      </c>
+      <c r="P27" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8">
+        <v>1</v>
+      </c>
+      <c r="S27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" t="s">
+        <v>19</v>
+      </c>
+      <c r="S28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="G32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C19:S19"/>
+    <mergeCell ref="C1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:AJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AH22" sqref="AH22:AJ22"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22:AJ37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,28 +2229,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>